--- a/biology/Médecine/Roland_Tomb/Roland_Tomb.xlsx
+++ b/biology/Médecine/Roland_Tomb/Roland_Tomb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roland Tomb est un auteur, bioéthicien et médecin dermatologue franco-libanais, né en 1958 à Beyrouth, au Liban. Il est doyen de la Faculté de médecine de l'Université Saint-Joseph de Beyrouth depuis 2011. Il est président du Département de bioéthique de cette même université et est un membre actif des comités de bioéthique de l'UNESCO.
 </t>
@@ -511,9 +523,11 @@
           <t>Début de carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tomb a fréquenté le Collège des Jésuites Notre-Dame de Jamhour[1] au Liban et a poursuivi ses études de médecine à Paris, à la Faculté de médecine Pierre et Marie Curie (aujourd’hui Sorbonne Université)[2], puis a obtenu son doctorat en 1989 à Strasbourg à l'Université Louis-Pasteur (aujourd’hui Université de Strasbourg). Le sujet de sa thèse, supervisée par Edouard Grosshans, était la redécouverte de maladies cutanées antérieurement décrites[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tomb a fréquenté le Collège des Jésuites Notre-Dame de Jamhour au Liban et a poursuivi ses études de médecine à Paris, à la Faculté de médecine Pierre et Marie Curie (aujourd’hui Sorbonne Université), puis a obtenu son doctorat en 1989 à Strasbourg à l'Université Louis-Pasteur (aujourd’hui Université de Strasbourg). Le sujet de sa thèse, supervisée par Edouard Grosshans, était la redécouverte de maladies cutanées antérieurement décrites.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Carrière médicale et universitaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tomb a exercé la dermatologie à Strasbourg, où il est devenu Chef de Clinique, a enseigné, mené des recherches, et a également dirigé la clinique d'allergologie pendant huit ans. Il a aussi obtenu un DEA en pharmacologie et pharmacochimie[4]. Tomb s'est installé à Beyrouth en 1993, où Il a immédiatement été nommé professeur et dirigé le service de dermatologie à l'hôpital Hôtel-Dieu de France à Beyrouth[4]. En 2011, Tomb a été élu doyen de la Faculté de médecine de l'Université Saint-Joseph de Beyrouth[5]. Il a été réélu deux fois à ce poste pour des mandats de quatre ans, en 2015 et en 2019[6],[7]. Durant son mandat de doyen, Tomb a signé de nombreuses conventions et accords avec des universités et centres de recherche français, suisses, et belges, concernant la collaboration académique et les échanges d'étudiants. Il a notamment initié la construction d'un centre de simulation[8] et d’une nouvelle Faculté de médecine high-tech au sein du jardin botanique de l'Université Saint-Joseph[9]. Tomb est membre et ancien président de la Société libanaise de dermatologie[4], membre de la Société française de dermatologie[4], et vice-président de l'Association des dermatologistes francophones[10]. Il a aussi été membre du conseil d'administration de l'Ordre des médecins du Liban[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tomb a exercé la dermatologie à Strasbourg, où il est devenu Chef de Clinique, a enseigné, mené des recherches, et a également dirigé la clinique d'allergologie pendant huit ans. Il a aussi obtenu un DEA en pharmacologie et pharmacochimie. Tomb s'est installé à Beyrouth en 1993, où Il a immédiatement été nommé professeur et dirigé le service de dermatologie à l'hôpital Hôtel-Dieu de France à Beyrouth. En 2011, Tomb a été élu doyen de la Faculté de médecine de l'Université Saint-Joseph de Beyrouth. Il a été réélu deux fois à ce poste pour des mandats de quatre ans, en 2015 et en 2019,. Durant son mandat de doyen, Tomb a signé de nombreuses conventions et accords avec des universités et centres de recherche français, suisses, et belges, concernant la collaboration académique et les échanges d'étudiants. Il a notamment initié la construction d'un centre de simulation et d’une nouvelle Faculté de médecine high-tech au sein du jardin botanique de l'Université Saint-Joseph. Tomb est membre et ancien président de la Société libanaise de dermatologie, membre de la Société française de dermatologie, et vice-président de l'Association des dermatologistes francophones. Il a aussi été membre du conseil d'administration de l'Ordre des médecins du Liban.
 </t>
         </is>
       </c>
@@ -573,14 +589,16 @@
           <t>Publications médicales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tomb est l'auteur ou le co-auteur de plus de 300 articles dans des revues médicales internationales[11]. De plus, il a été l'auteur ou contribué aux ouvrages médicaux collectifs suivants:
-Bernard Gerbaka, Sami Richa et Roland Tomb. Child Sexual Abuse and Tafficking in the Arab Region (Abus Sexuel et Traffic de Mineurs dans la Région Arabe). Cham: Springer Nature Switzerland AG, 2021[12].
-Traité de médecine, 3 volumes. Paris: Éditions du Traité de Médecine, 2020 (5e édition)[13].
-Dermatologie et infections sexuellement transmissibles. Paris: Elsevier Masson, 2019 (5e édition)[14].
-Thérapeutique dermatologique. Paris: Flammarion Médecine, 2011[15].
-Nouvel atlas pratique de dermatologie et vénéréologie. Par Ruggero Tagliavini ; traduit, adapté et mis à jour par Roland Tomb. Paris: Ellipses, 1995[16].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tomb est l'auteur ou le co-auteur de plus de 300 articles dans des revues médicales internationales. De plus, il a été l'auteur ou contribué aux ouvrages médicaux collectifs suivants:
+Bernard Gerbaka, Sami Richa et Roland Tomb. Child Sexual Abuse and Tafficking in the Arab Region (Abus Sexuel et Traffic de Mineurs dans la Région Arabe). Cham: Springer Nature Switzerland AG, 2021.
+Traité de médecine, 3 volumes. Paris: Éditions du Traité de Médecine, 2020 (5e édition).
+Dermatologie et infections sexuellement transmissibles. Paris: Elsevier Masson, 2019 (5e édition).
+Thérapeutique dermatologique. Paris: Flammarion Médecine, 2011.
+Nouvel atlas pratique de dermatologie et vénéréologie. Par Ruggero Tagliavini ; traduit, adapté et mis à jour par Roland Tomb. Paris: Ellipses, 1995.</t>
         </is>
       </c>
     </row>
@@ -608,10 +626,12 @@
           <t>Travail dans le domaine de la bioéthique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la Faculté de médecine de l'Université Saint-Joseph, Tomb a créé un diplôme universitaire en éthique médicale et a été nommé titulaire de la chaire de bioéthique. Il a également été président du comité d'éthique de l'hôpital Hôtel-Dieu de France à Beyrouth et président du comité d'éthique de l'Ordre des médecins du Liban[4]. En 2009, Tomb a obtenu un Doctorat d'État en philosophie et bioéthique à l'Université d'Aix-Marseille. La thèse, dirigée par Pierre Le Coz, abordait les enjeux éthiques de la circoncision[17]. En 2022, Tomb publie Histoire de la circoncision (Paris: Que Sais-Je?), un ouvrage basé sur ses recherches doctorales[18],[19],[20],[21].
-En 2014, Tomb a été nommé rapporteur au Comité intergouvernemental de bioéthique de l'UNESCO[22]. En 2016, il a été nommé membre du Comité international de bioéthique de l'UNESCO[23], dont il est devenu l'un des vice-présidents en 2018[24],[25]. De plus, il a été membre du Comité consultatif national libanais de bioéthique de 2010 à 2018[26].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la Faculté de médecine de l'Université Saint-Joseph, Tomb a créé un diplôme universitaire en éthique médicale et a été nommé titulaire de la chaire de bioéthique. Il a également été président du comité d'éthique de l'hôpital Hôtel-Dieu de France à Beyrouth et président du comité d'éthique de l'Ordre des médecins du Liban. En 2009, Tomb a obtenu un Doctorat d'État en philosophie et bioéthique à l'Université d'Aix-Marseille. La thèse, dirigée par Pierre Le Coz, abordait les enjeux éthiques de la circoncision. En 2022, Tomb publie Histoire de la circoncision (Paris: Que Sais-Je?), un ouvrage basé sur ses recherches doctorales.
+En 2014, Tomb a été nommé rapporteur au Comité intergouvernemental de bioéthique de l'UNESCO. En 2016, il a été nommé membre du Comité international de bioéthique de l'UNESCO, dont il est devenu l'un des vice-présidents en 2018,. De plus, il a été membre du Comité consultatif national libanais de bioéthique de 2010 à 2018.
 </t>
         </is>
       </c>
@@ -640,9 +660,11 @@
           <t>Autres domaines d'activité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tomb est membre du conseil de la Fondation Alexis et Anne-Marie Habib qui fournit un soutien financier éducatif à la jeunesse libanaise[2]. Il a participé à plusieurs long-métrages et joué des rôles mineurs dans deux films de la cinéaste franco-libanaise Danielle Arbid: Dans les champs de bataille (2011) et Beyrouth Hotel (2004[27]). Tomb a aussi étudié les langues orientales anciennes à l'Institut catholique de Paris, à la Faculté de théologie protestante de Strasbourg et à l’ELASU (Sorbonne Université)[4]. Il a également contribué à plusieurs livres d'histoire, parmi lesquels L'Hôtel-Dieu de France, un Hôpital centenaire (avec Christian Taoutel) (Beyrouth: Éditions de l'USJ, 2021), Lucien Cattin, le bâtisseur (édité par Christian Taoutel (Beyrouth: Éditions de l'USJ, 2018))[28], USJ, Portrait d'une université (par Carla Eddé, Roland Tomb et Cynthia Ghobril-Andrea (Beyrouth: Éditions de l'USJ, 2016))[29], Léon de Laborde, Voyage en Orient (Le Blanc, France: ABMB, 2010)[30], et L'Islande et le Liban: antipodes de l'UE (sous la direction de David Thor Bjorgvinsson et Chibli Mallat (Bruxelles: Bruyland Edition, 2008))[31].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tomb est membre du conseil de la Fondation Alexis et Anne-Marie Habib qui fournit un soutien financier éducatif à la jeunesse libanaise. Il a participé à plusieurs long-métrages et joué des rôles mineurs dans deux films de la cinéaste franco-libanaise Danielle Arbid: Dans les champs de bataille (2011) et Beyrouth Hotel (2004). Tomb a aussi étudié les langues orientales anciennes à l'Institut catholique de Paris, à la Faculté de théologie protestante de Strasbourg et à l’ELASU (Sorbonne Université). Il a également contribué à plusieurs livres d'histoire, parmi lesquels L'Hôtel-Dieu de France, un Hôpital centenaire (avec Christian Taoutel) (Beyrouth: Éditions de l'USJ, 2021), Lucien Cattin, le bâtisseur (édité par Christian Taoutel (Beyrouth: Éditions de l'USJ, 2018)), USJ, Portrait d'une université (par Carla Eddé, Roland Tomb et Cynthia Ghobril-Andrea (Beyrouth: Éditions de l'USJ, 2016)), Léon de Laborde, Voyage en Orient (Le Blanc, France: ABMB, 2010), et L'Islande et le Liban: antipodes de l'UE (sous la direction de David Thor Bjorgvinsson et Chibli Mallat (Bruxelles: Bruyland Edition, 2008)).
 En 2022, il publie une Histoire de la circoncision aux Presses universitaires de France dans la collection Que sais-je ? et fait sur le même thème une conférence au Collège de France accessible en vidéo.
 </t>
         </is>
@@ -672,9 +694,11 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 19 mai 2014, Tomb a été nommé Officier de l'Ordre libanais du Cèdre[32].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 19 mai 2014, Tomb a été nommé Officier de l'Ordre libanais du Cèdre.
 </t>
         </is>
       </c>
